--- a/GWPC_Data4.xlsx
+++ b/GWPC_Data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GW Automation Scripts\GWPCDataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B4DE5-6D46-4F1D-87BA-8D703B891E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9B8BC-029A-4D00-8573-5E25FAD0480B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="9720" windowHeight="3345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,10 +176,10 @@
     <t>C0005</t>
   </si>
   <si>
-    <t>EMCBIL2456SC1</t>
-  </si>
-  <si>
-    <t>02/21/2026</t>
+    <t>EMCBIL3132SC1</t>
+  </si>
+  <si>
+    <t>05/03/2026</t>
   </si>
 </sst>
 </file>
